--- a/cg/apps/invoice/templates/pool_invoice.xlsx
+++ b/cg/apps/invoice/templates/pool_invoice.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="27629"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="28125"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="17060" yWindow="2680" windowWidth="25600" windowHeight="16060"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060"/>
   </bookViews>
   <sheets>
     <sheet name="Faktura" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="30">
   <si>
     <t>Fakturaunderlag</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pool </t>
+  </si>
+  <si>
+    <t>Priotitet</t>
   </si>
 </sst>
 </file>
@@ -236,7 +239,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -246,71 +249,83 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -318,6 +333,12 @@
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -611,47 +632,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:G247"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="17.5" style="3" customWidth="1"/>
-    <col min="3" max="6" width="12.6640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="2" customWidth="1"/>
+    <col min="3" max="6" width="12.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="23">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:7" ht="18">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="20"/>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="17" t="s">
         <v>18</v>
       </c>
@@ -660,48 +681,49 @@
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11" t="s">
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="11" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="14" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="17" t="s">
         <v>21</v>
       </c>
@@ -710,48 +732,49 @@
       <c r="D12" s="17"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="11" t="s">
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="11" t="s">
+    <row r="14" spans="1:7">
+      <c r="A14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="11" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="19" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="17" t="s">
         <v>15</v>
       </c>
@@ -760,284 +783,867 @@
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
       <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="20" t="s">
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="11"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="7" t="s">
+    <row r="21" spans="1:7">
+      <c r="A21" s="9"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="F23" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="11"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="11"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="11"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="11"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="11"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="11"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="11"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="11"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="10"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="9"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="18"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="9"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="18"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="9"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="18"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="9"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="18"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="9"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="18"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="9"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="18"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="9"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="9"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="18"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="11"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="10"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="18"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="11"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="10"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="18"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="11"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="10"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="11"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="10"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="11"/>
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="10"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="18"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="11"/>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="10"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="18"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="11"/>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="10"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="18"/>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="11"/>
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="10"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="18"/>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="11"/>
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="10"/>
+      <c r="A41" s="9"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="18"/>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="11"/>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="10"/>
+      <c r="A42" s="9"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="18"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="11"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="10"/>
+      <c r="A43" s="9"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="18"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="11"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="10"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="18"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="11"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="10"/>
+      <c r="A45" s="9"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="18"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="11"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="10"/>
+      <c r="A46" s="9"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="18"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="11"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="10"/>
+      <c r="A47" s="9"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="18"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="11"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="10"/>
+      <c r="A48" s="9"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="18"/>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="11"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="10"/>
+      <c r="A49" s="9"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="18"/>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="11"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="10"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="18"/>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="11"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="10"/>
+      <c r="A51" s="9"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="18"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="11"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="10"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="18"/>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="11"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="10"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="18"/>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="F54" s="18"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="F55" s="18"/>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="F56" s="18"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="F57" s="18"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="F58" s="18"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="F59" s="18"/>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="F60" s="18"/>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="F61" s="18"/>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="F62" s="18"/>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="F63" s="18"/>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="F64" s="18"/>
+    </row>
+    <row r="65" spans="6:6">
+      <c r="F65" s="18"/>
+    </row>
+    <row r="66" spans="6:6">
+      <c r="F66" s="18"/>
+    </row>
+    <row r="67" spans="6:6">
+      <c r="F67" s="18"/>
+    </row>
+    <row r="68" spans="6:6">
+      <c r="F68" s="18"/>
+    </row>
+    <row r="69" spans="6:6">
+      <c r="F69" s="18"/>
+    </row>
+    <row r="70" spans="6:6">
+      <c r="F70" s="18"/>
+    </row>
+    <row r="71" spans="6:6">
+      <c r="F71" s="18"/>
+    </row>
+    <row r="72" spans="6:6">
+      <c r="F72" s="18"/>
+    </row>
+    <row r="73" spans="6:6">
+      <c r="F73" s="18"/>
+    </row>
+    <row r="74" spans="6:6">
+      <c r="F74" s="18"/>
+    </row>
+    <row r="75" spans="6:6">
+      <c r="F75" s="18"/>
+    </row>
+    <row r="76" spans="6:6">
+      <c r="F76" s="18"/>
+    </row>
+    <row r="77" spans="6:6">
+      <c r="F77" s="18"/>
+    </row>
+    <row r="78" spans="6:6">
+      <c r="F78" s="18"/>
+    </row>
+    <row r="79" spans="6:6">
+      <c r="F79" s="18"/>
+    </row>
+    <row r="80" spans="6:6">
+      <c r="F80" s="18"/>
+    </row>
+    <row r="81" spans="6:6">
+      <c r="F81" s="18"/>
+    </row>
+    <row r="82" spans="6:6">
+      <c r="F82" s="18"/>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" s="18"/>
+    </row>
+    <row r="84" spans="6:6">
+      <c r="F84" s="18"/>
+    </row>
+    <row r="85" spans="6:6">
+      <c r="F85" s="18"/>
+    </row>
+    <row r="86" spans="6:6">
+      <c r="F86" s="18"/>
+    </row>
+    <row r="87" spans="6:6">
+      <c r="F87" s="18"/>
+    </row>
+    <row r="88" spans="6:6">
+      <c r="F88" s="18"/>
+    </row>
+    <row r="89" spans="6:6">
+      <c r="F89" s="18"/>
+    </row>
+    <row r="90" spans="6:6">
+      <c r="F90" s="18"/>
+    </row>
+    <row r="91" spans="6:6">
+      <c r="F91" s="18"/>
+    </row>
+    <row r="92" spans="6:6">
+      <c r="F92" s="18"/>
+    </row>
+    <row r="93" spans="6:6">
+      <c r="F93" s="18"/>
+    </row>
+    <row r="94" spans="6:6">
+      <c r="F94" s="18"/>
+    </row>
+    <row r="95" spans="6:6">
+      <c r="F95" s="18"/>
+    </row>
+    <row r="96" spans="6:6">
+      <c r="F96" s="18"/>
+    </row>
+    <row r="97" spans="6:6">
+      <c r="F97" s="18"/>
+    </row>
+    <row r="98" spans="6:6">
+      <c r="F98" s="18"/>
+    </row>
+    <row r="99" spans="6:6">
+      <c r="F99" s="18"/>
+    </row>
+    <row r="100" spans="6:6">
+      <c r="F100" s="18"/>
+    </row>
+    <row r="101" spans="6:6">
+      <c r="F101" s="18"/>
+    </row>
+    <row r="102" spans="6:6">
+      <c r="F102" s="18"/>
+    </row>
+    <row r="103" spans="6:6">
+      <c r="F103" s="18"/>
+    </row>
+    <row r="104" spans="6:6">
+      <c r="F104" s="18"/>
+    </row>
+    <row r="105" spans="6:6">
+      <c r="F105" s="18"/>
+    </row>
+    <row r="106" spans="6:6">
+      <c r="F106" s="18"/>
+    </row>
+    <row r="107" spans="6:6">
+      <c r="F107" s="18"/>
+    </row>
+    <row r="108" spans="6:6">
+      <c r="F108" s="18"/>
+    </row>
+    <row r="109" spans="6:6">
+      <c r="F109" s="18"/>
+    </row>
+    <row r="110" spans="6:6">
+      <c r="F110" s="18"/>
+    </row>
+    <row r="111" spans="6:6">
+      <c r="F111" s="18"/>
+    </row>
+    <row r="112" spans="6:6">
+      <c r="F112" s="18"/>
+    </row>
+    <row r="113" spans="6:6">
+      <c r="F113" s="18"/>
+    </row>
+    <row r="114" spans="6:6">
+      <c r="F114" s="18"/>
+    </row>
+    <row r="115" spans="6:6">
+      <c r="F115" s="18"/>
+    </row>
+    <row r="116" spans="6:6">
+      <c r="F116" s="18"/>
+    </row>
+    <row r="117" spans="6:6">
+      <c r="F117" s="18"/>
+    </row>
+    <row r="118" spans="6:6">
+      <c r="F118" s="18"/>
+    </row>
+    <row r="119" spans="6:6">
+      <c r="F119" s="18"/>
+    </row>
+    <row r="120" spans="6:6">
+      <c r="F120" s="18"/>
+    </row>
+    <row r="121" spans="6:6">
+      <c r="F121" s="18"/>
+    </row>
+    <row r="122" spans="6:6">
+      <c r="F122" s="18"/>
+    </row>
+    <row r="123" spans="6:6">
+      <c r="F123" s="18"/>
+    </row>
+    <row r="124" spans="6:6">
+      <c r="F124" s="18"/>
+    </row>
+    <row r="125" spans="6:6">
+      <c r="F125" s="18"/>
+    </row>
+    <row r="126" spans="6:6">
+      <c r="F126" s="18"/>
+    </row>
+    <row r="127" spans="6:6">
+      <c r="F127" s="18"/>
+    </row>
+    <row r="128" spans="6:6">
+      <c r="F128" s="18"/>
+    </row>
+    <row r="129" spans="6:6">
+      <c r="F129" s="18"/>
+    </row>
+    <row r="130" spans="6:6">
+      <c r="F130" s="18"/>
+    </row>
+    <row r="131" spans="6:6">
+      <c r="F131" s="18"/>
+    </row>
+    <row r="132" spans="6:6">
+      <c r="F132" s="18"/>
+    </row>
+    <row r="133" spans="6:6">
+      <c r="F133" s="18"/>
+    </row>
+    <row r="134" spans="6:6">
+      <c r="F134" s="18"/>
+    </row>
+    <row r="135" spans="6:6">
+      <c r="F135" s="18"/>
+    </row>
+    <row r="136" spans="6:6">
+      <c r="F136" s="18"/>
+    </row>
+    <row r="137" spans="6:6">
+      <c r="F137" s="18"/>
+    </row>
+    <row r="138" spans="6:6">
+      <c r="F138" s="18"/>
+    </row>
+    <row r="139" spans="6:6">
+      <c r="F139" s="18"/>
+    </row>
+    <row r="140" spans="6:6">
+      <c r="F140" s="18"/>
+    </row>
+    <row r="141" spans="6:6">
+      <c r="F141" s="18"/>
+    </row>
+    <row r="142" spans="6:6">
+      <c r="F142" s="18"/>
+    </row>
+    <row r="143" spans="6:6">
+      <c r="F143" s="18"/>
+    </row>
+    <row r="144" spans="6:6">
+      <c r="F144" s="18"/>
+    </row>
+    <row r="145" spans="6:6">
+      <c r="F145" s="18"/>
+    </row>
+    <row r="146" spans="6:6">
+      <c r="F146" s="18"/>
+    </row>
+    <row r="147" spans="6:6">
+      <c r="F147" s="18"/>
+    </row>
+    <row r="148" spans="6:6">
+      <c r="F148" s="18"/>
+    </row>
+    <row r="149" spans="6:6">
+      <c r="F149" s="18"/>
+    </row>
+    <row r="150" spans="6:6">
+      <c r="F150" s="18"/>
+    </row>
+    <row r="151" spans="6:6">
+      <c r="F151" s="18"/>
+    </row>
+    <row r="152" spans="6:6">
+      <c r="F152" s="18"/>
+    </row>
+    <row r="153" spans="6:6">
+      <c r="F153" s="18"/>
+    </row>
+    <row r="154" spans="6:6">
+      <c r="F154" s="18"/>
+    </row>
+    <row r="155" spans="6:6">
+      <c r="F155" s="18"/>
+    </row>
+    <row r="156" spans="6:6">
+      <c r="F156" s="18"/>
+    </row>
+    <row r="157" spans="6:6">
+      <c r="F157" s="18"/>
+    </row>
+    <row r="158" spans="6:6">
+      <c r="F158" s="18"/>
+    </row>
+    <row r="159" spans="6:6">
+      <c r="F159" s="18"/>
+    </row>
+    <row r="160" spans="6:6">
+      <c r="F160" s="18"/>
+    </row>
+    <row r="161" spans="6:6">
+      <c r="F161" s="18"/>
+    </row>
+    <row r="162" spans="6:6">
+      <c r="F162" s="18"/>
+    </row>
+    <row r="163" spans="6:6">
+      <c r="F163" s="18"/>
+    </row>
+    <row r="164" spans="6:6">
+      <c r="F164" s="18"/>
+    </row>
+    <row r="165" spans="6:6">
+      <c r="F165" s="18"/>
+    </row>
+    <row r="166" spans="6:6">
+      <c r="F166" s="18"/>
+    </row>
+    <row r="167" spans="6:6">
+      <c r="F167" s="18"/>
+    </row>
+    <row r="168" spans="6:6">
+      <c r="F168" s="18"/>
+    </row>
+    <row r="169" spans="6:6">
+      <c r="F169" s="18"/>
+    </row>
+    <row r="170" spans="6:6">
+      <c r="F170" s="18"/>
+    </row>
+    <row r="171" spans="6:6">
+      <c r="F171" s="18"/>
+    </row>
+    <row r="172" spans="6:6">
+      <c r="F172" s="18"/>
+    </row>
+    <row r="173" spans="6:6">
+      <c r="F173" s="18"/>
+    </row>
+    <row r="174" spans="6:6">
+      <c r="F174" s="18"/>
+    </row>
+    <row r="175" spans="6:6">
+      <c r="F175" s="18"/>
+    </row>
+    <row r="176" spans="6:6">
+      <c r="F176" s="18"/>
+    </row>
+    <row r="177" spans="6:6">
+      <c r="F177" s="18"/>
+    </row>
+    <row r="178" spans="6:6">
+      <c r="F178" s="18"/>
+    </row>
+    <row r="179" spans="6:6">
+      <c r="F179" s="18"/>
+    </row>
+    <row r="180" spans="6:6">
+      <c r="F180" s="18"/>
+    </row>
+    <row r="181" spans="6:6">
+      <c r="F181" s="18"/>
+    </row>
+    <row r="182" spans="6:6">
+      <c r="F182" s="18"/>
+    </row>
+    <row r="183" spans="6:6">
+      <c r="F183" s="18"/>
+    </row>
+    <row r="184" spans="6:6">
+      <c r="F184" s="18"/>
+    </row>
+    <row r="185" spans="6:6">
+      <c r="F185" s="18"/>
+    </row>
+    <row r="186" spans="6:6">
+      <c r="F186" s="18"/>
+    </row>
+    <row r="187" spans="6:6">
+      <c r="F187" s="18"/>
+    </row>
+    <row r="188" spans="6:6">
+      <c r="F188" s="18"/>
+    </row>
+    <row r="189" spans="6:6">
+      <c r="F189" s="18"/>
+    </row>
+    <row r="190" spans="6:6">
+      <c r="F190" s="18"/>
+    </row>
+    <row r="191" spans="6:6">
+      <c r="F191" s="18"/>
+    </row>
+    <row r="192" spans="6:6">
+      <c r="F192" s="18"/>
+    </row>
+    <row r="193" spans="6:6">
+      <c r="F193" s="18"/>
+    </row>
+    <row r="194" spans="6:6">
+      <c r="F194" s="18"/>
+    </row>
+    <row r="195" spans="6:6">
+      <c r="F195" s="18"/>
+    </row>
+    <row r="196" spans="6:6">
+      <c r="F196" s="18"/>
+    </row>
+    <row r="197" spans="6:6">
+      <c r="F197" s="18"/>
+    </row>
+    <row r="198" spans="6:6">
+      <c r="F198" s="18"/>
+    </row>
+    <row r="199" spans="6:6">
+      <c r="F199" s="18"/>
+    </row>
+    <row r="200" spans="6:6">
+      <c r="F200" s="18"/>
+    </row>
+    <row r="201" spans="6:6">
+      <c r="F201" s="18"/>
+    </row>
+    <row r="202" spans="6:6">
+      <c r="F202" s="18"/>
+    </row>
+    <row r="203" spans="6:6">
+      <c r="F203" s="18"/>
+    </row>
+    <row r="204" spans="6:6">
+      <c r="F204" s="18"/>
+    </row>
+    <row r="205" spans="6:6">
+      <c r="F205" s="18"/>
+    </row>
+    <row r="206" spans="6:6">
+      <c r="F206" s="18"/>
+    </row>
+    <row r="207" spans="6:6">
+      <c r="F207" s="18"/>
+    </row>
+    <row r="208" spans="6:6">
+      <c r="F208" s="18"/>
+    </row>
+    <row r="209" spans="6:6">
+      <c r="F209" s="18"/>
+    </row>
+    <row r="210" spans="6:6">
+      <c r="F210" s="18"/>
+    </row>
+    <row r="211" spans="6:6">
+      <c r="F211" s="18"/>
+    </row>
+    <row r="212" spans="6:6">
+      <c r="F212" s="18"/>
+    </row>
+    <row r="213" spans="6:6">
+      <c r="F213" s="18"/>
+    </row>
+    <row r="214" spans="6:6">
+      <c r="F214" s="18"/>
+    </row>
+    <row r="215" spans="6:6">
+      <c r="F215" s="18"/>
+    </row>
+    <row r="216" spans="6:6">
+      <c r="F216" s="18"/>
+    </row>
+    <row r="217" spans="6:6">
+      <c r="F217" s="18"/>
+    </row>
+    <row r="218" spans="6:6">
+      <c r="F218" s="18"/>
+    </row>
+    <row r="219" spans="6:6">
+      <c r="F219" s="18"/>
+    </row>
+    <row r="220" spans="6:6">
+      <c r="F220" s="18"/>
+    </row>
+    <row r="221" spans="6:6">
+      <c r="F221" s="18"/>
+    </row>
+    <row r="222" spans="6:6">
+      <c r="F222" s="18"/>
+    </row>
+    <row r="223" spans="6:6">
+      <c r="F223" s="18"/>
+    </row>
+    <row r="224" spans="6:6">
+      <c r="F224" s="18"/>
+    </row>
+    <row r="225" spans="6:6">
+      <c r="F225" s="18"/>
+    </row>
+    <row r="226" spans="6:6">
+      <c r="F226" s="18"/>
+    </row>
+    <row r="227" spans="6:6">
+      <c r="F227" s="18"/>
+    </row>
+    <row r="228" spans="6:6">
+      <c r="F228" s="18"/>
+    </row>
+    <row r="229" spans="6:6">
+      <c r="F229" s="18"/>
+    </row>
+    <row r="230" spans="6:6">
+      <c r="F230" s="18"/>
+    </row>
+    <row r="231" spans="6:6">
+      <c r="F231" s="18"/>
+    </row>
+    <row r="232" spans="6:6">
+      <c r="F232" s="18"/>
+    </row>
+    <row r="233" spans="6:6">
+      <c r="F233" s="18"/>
+    </row>
+    <row r="234" spans="6:6">
+      <c r="F234" s="18"/>
+    </row>
+    <row r="235" spans="6:6">
+      <c r="F235" s="18"/>
+    </row>
+    <row r="236" spans="6:6">
+      <c r="F236" s="18"/>
+    </row>
+    <row r="237" spans="6:6">
+      <c r="F237" s="18"/>
+    </row>
+    <row r="238" spans="6:6">
+      <c r="F238" s="18"/>
+    </row>
+    <row r="239" spans="6:6">
+      <c r="F239" s="18"/>
+    </row>
+    <row r="240" spans="6:6">
+      <c r="F240" s="18"/>
+    </row>
+    <row r="241" spans="6:6">
+      <c r="F241" s="18"/>
+    </row>
+    <row r="242" spans="6:6">
+      <c r="F242" s="18"/>
+    </row>
+    <row r="243" spans="6:6">
+      <c r="F243" s="18"/>
+    </row>
+    <row r="244" spans="6:6">
+      <c r="F244" s="18"/>
+    </row>
+    <row r="245" spans="6:6">
+      <c r="F245" s="18"/>
+    </row>
+    <row r="246" spans="6:6">
+      <c r="F246" s="18"/>
+    </row>
+    <row r="247" spans="6:6">
+      <c r="F247" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="2">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A19:F19"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C9" r:id="rId1"/>
@@ -1062,296 +1668,296 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="15.1640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="7.1640625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="32.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="13" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="22"/>
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="10"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="11"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="10"/>
+      <c r="A8" s="9"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="10"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="11"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="10"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="10"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="11"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="11"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="11"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="10"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="11"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="11"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="10"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="11"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="10"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="10"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="11"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="10"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="8"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="11"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="10"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="8"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="11"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="10"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="11"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="10"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="11"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="10"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="11"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="10"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="11"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="10"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="11"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="10"/>
+      <c r="A27" s="9"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="11"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="10"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="11"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="10"/>
+      <c r="A29" s="9"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="11"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="10"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="11"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="10"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="11"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="10"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="11"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="10"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="11"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="10"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="11"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="10"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="11"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="10"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
